--- a/Mifos Automation Excels/Client/4014-CREATEACTIVECLIENT.xlsx
+++ b/Mifos Automation Excels/Client/4014-CREATEACTIVECLIENT.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17571"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620"/>
   </bookViews>
@@ -120,7 +125,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
@@ -207,6 +212,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -254,7 +262,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -287,9 +295,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -322,6 +347,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -501,7 +543,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -555,8 +597,8 @@
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
-        <v>4014563210</v>
+      <c r="B6">
+        <v>9987654321</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
